--- a/XAutomateMVC/TestCases/dq_4.xlsx
+++ b/XAutomateMVC/TestCases/dq_4.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+  <x:si>
+    <x:t>TC Id</x:t>
+  </x:si>
   <x:si>
     <x:t>Test Approach</x:t>
   </x:si>
@@ -22,6 +25,9 @@
     <x:t>Rule Name</x:t>
   </x:si>
   <x:si>
+    <x:t>TestCae Name</x:t>
+  </x:si>
+  <x:si>
     <x:t>Schema</x:t>
   </x:si>
   <x:si>
@@ -43,6 +49,12 @@
     <x:t>Expected Value</x:t>
   </x:si>
   <x:si>
+    <x:t>Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>471</x:t>
+  </x:si>
+  <x:si>
     <x:t>Missing_values_check</x:t>
   </x:si>
   <x:si>
@@ -55,7 +67,7 @@
     <x:t>source_employee_data</x:t>
   </x:si>
   <x:si>
-    <x:t>EMPLOYEE_IDENTIFIER</x:t>
+    <x:t>employee_identifier</x:t>
   </x:si>
   <x:si>
     <x:t>is</x:t>
@@ -67,37 +79,97 @@
     <x:t>Row Count Is 0</x:t>
   </x:si>
   <x:si>
+    <x:t>472</x:t>
+  </x:si>
+  <x:si>
     <x:t>=</x:t>
   </x:si>
   <x:si>
     <x:t>''</x:t>
   </x:si>
   <x:si>
+    <x:t>473</x:t>
+  </x:si>
+  <x:si>
     <x:t>first_name</x:t>
   </x:si>
   <x:si>
+    <x:t>474</x:t>
+  </x:si>
+  <x:si>
+    <x:t>475</x:t>
+  </x:si>
+  <x:si>
     <x:t>last_name</x:t>
   </x:si>
   <x:si>
+    <x:t>476</x:t>
+  </x:si>
+  <x:si>
+    <x:t>477</x:t>
+  </x:si>
+  <x:si>
     <x:t>GENDER</x:t>
   </x:si>
   <x:si>
+    <x:t>478</x:t>
+  </x:si>
+  <x:si>
+    <x:t>479</x:t>
+  </x:si>
+  <x:si>
     <x:t>EXPERIENCE</x:t>
   </x:si>
   <x:si>
+    <x:t>480</x:t>
+  </x:si>
+  <x:si>
+    <x:t>481</x:t>
+  </x:si>
+  <x:si>
     <x:t>SALARY</x:t>
   </x:si>
   <x:si>
+    <x:t>482</x:t>
+  </x:si>
+  <x:si>
+    <x:t>483</x:t>
+  </x:si>
+  <x:si>
     <x:t>EMPLOYEE_TYPE</x:t>
   </x:si>
   <x:si>
+    <x:t>484</x:t>
+  </x:si>
+  <x:si>
+    <x:t>485</x:t>
+  </x:si>
+  <x:si>
     <x:t>email</x:t>
   </x:si>
   <x:si>
+    <x:t>486</x:t>
+  </x:si>
+  <x:si>
+    <x:t>487</x:t>
+  </x:si>
+  <x:si>
     <x:t>country</x:t>
   </x:si>
   <x:si>
+    <x:t>488</x:t>
+  </x:si>
+  <x:si>
+    <x:t>489</x:t>
+  </x:si>
+  <x:si>
     <x:t>phone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>490</x:t>
+  </x:si>
+  <x:si>
+    <x:t>491</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -161,18 +233,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="dq_4" displayName="dq_4" ref="A1:I21" totalsRowShown="0">
-  <x:autoFilter ref="A1:I21"/>
-  <x:tableColumns count="9">
-    <x:tableColumn id="1" name="Test Approach"/>
-    <x:tableColumn id="2" name="Rule Name"/>
-    <x:tableColumn id="3" name="Schema"/>
-    <x:tableColumn id="4" name="Table_name"/>
-    <x:tableColumn id="5" name="Column_Name"/>
-    <x:tableColumn id="6" name="Value"/>
-    <x:tableColumn id="7" name="Value1"/>
-    <x:tableColumn id="8" name="Expected Result"/>
-    <x:tableColumn id="9" name="Expected Value"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="dq_4" displayName="dq_4" ref="A1:L22" totalsRowShown="0">
+  <x:autoFilter ref="A1:L22"/>
+  <x:tableColumns count="12">
+    <x:tableColumn id="1" name="TC Id"/>
+    <x:tableColumn id="2" name="Test Approach"/>
+    <x:tableColumn id="3" name="Rule Name"/>
+    <x:tableColumn id="4" name="TestCae Name"/>
+    <x:tableColumn id="5" name="Schema"/>
+    <x:tableColumn id="6" name="Table_name"/>
+    <x:tableColumn id="7" name="Column_Name"/>
+    <x:tableColumn id="8" name="Value"/>
+    <x:tableColumn id="9" name="Value1"/>
+    <x:tableColumn id="10" name="Expected Result"/>
+    <x:tableColumn id="11" name="Expected Value"/>
+    <x:tableColumn id="12" name="Description"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
@@ -466,13 +541,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I21"/>
+  <x:dimension ref="A1:L22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:9">
+    <x:row r="1" spans="1:12">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -500,525 +575,686 @@
       <x:c r="I1" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:9">
+      <x:c r="J1" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K1" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L1" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:12">
       <x:c r="A2" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:9">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:12">
       <x:c r="A3" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="G3" s="0" t="s">
+      <x:c r="H3" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:12">
+      <x:c r="A4" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:9">
-      <x:c r="A4" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
+      <x:c r="I4" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:9">
+      <x:c r="J4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:12">
       <x:c r="A5" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:12">
+      <x:c r="A6" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
+      <x:c r="J6" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:12">
+      <x:c r="A7" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J7" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:12">
+      <x:c r="A8" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:9">
-      <x:c r="A6" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:9">
-      <x:c r="A7" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
+      <x:c r="I8" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J8" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:12">
+      <x:c r="A9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J9" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:12">
+      <x:c r="A10" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:9">
-      <x:c r="A8" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:9">
-      <x:c r="A9" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="s">
+      <x:c r="I10" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J10" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:12">
+      <x:c r="A11" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J11" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:12">
+      <x:c r="A12" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="H9" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:9">
-      <x:c r="A10" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
+      <x:c r="I12" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J12" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:12">
+      <x:c r="A13" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="F10" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G10" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H10" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:9">
-      <x:c r="A11" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
+      <x:c r="I13" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J13" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:12">
+      <x:c r="A14" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J14" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:12">
+      <x:c r="A15" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="F11" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G11" s="0" t="s">
+      <x:c r="I15" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J15" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:12">
+      <x:c r="A16" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="H11" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:9">
-      <x:c r="A12" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
+      <x:c r="I16" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J16" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:12">
+      <x:c r="A17" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="F12" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G12" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H12" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:9">
-      <x:c r="A13" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E13" s="0" t="s">
+      <x:c r="J17" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:12">
+      <x:c r="A18" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J18" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:12">
+      <x:c r="A19" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="F13" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G13" s="0" t="s">
+      <x:c r="J19" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:12">
+      <x:c r="A20" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="H13" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:9">
-      <x:c r="A14" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F14" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G14" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H14" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:9">
-      <x:c r="A15" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E15" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F15" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G15" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H15" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:9">
-      <x:c r="A16" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B16" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C16" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E16" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F16" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G16" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H16" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:9">
-      <x:c r="A17" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B17" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C17" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E17" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F17" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G17" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H17" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:9">
-      <x:c r="A18" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B18" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C18" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D18" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E18" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F18" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G18" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H18" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:9">
-      <x:c r="A19" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B19" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C19" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D19" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E19" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F19" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G19" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H19" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:9">
-      <x:c r="A20" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B20" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C20" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D20" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E20" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="F20" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G20" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H20" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:9">
+      <x:c r="I20" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J20" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:12">
       <x:c r="A21" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H21" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J21" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:12">
+      <x:c r="A22" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J22" s="0" t="s">
+        <x:v>20</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
